--- a/data_files/excel/PPV_Form.xlsx
+++ b/data_files/excel/PPV_Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ATS\ATSBC_PORTAL\data_files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95E867-4A4E-4343-9C08-DC2365A85808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C867FA-0A95-4BC7-85B5-74F32A384A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE67395-4790-43D1-8A6A-6C886CC4F3C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{8DE67395-4790-43D1-8A6A-6C886CC4F3C6}"/>
   </bookViews>
   <sheets>
     <sheet name="PPV" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>PRICE PURCHASE VARIANCE (PPV) APPROVAL FORM</t>
   </si>
@@ -131,14 +131,21 @@
   </si>
   <si>
     <t>Vendor 1 Variance VS QBOM</t>
+  </si>
+  <si>
+    <t>Chargeable to Cohu</t>
+  </si>
+  <si>
+    <t>Conversion Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -325,9 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -337,6 +341,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,20 +365,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,90 +788,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814DC4FD-3F8C-474C-BB19-B9EFE3B71B77}">
-  <dimension ref="B5:AJ24"/>
+  <dimension ref="B5:AL24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="24.7109375" customWidth="1"/>
-    <col min="33" max="33" width="19.7109375" customWidth="1"/>
-    <col min="34" max="34" width="18.85546875" customWidth="1"/>
-    <col min="35" max="35" width="20.5703125" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="24.6640625" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" customWidth="1"/>
+    <col min="35" max="35" width="18.88671875" customWidth="1"/>
+    <col min="36" max="37" width="20.5546875" customWidth="1"/>
+    <col min="38" max="38" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:36" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="2:38" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="22"/>
-    </row>
-    <row r="6" spans="2:36" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="18"/>
+    </row>
+    <row r="6" spans="2:38" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -876,39 +886,41 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="24" t="s">
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AE6" s="17" t="s">
+      <c r="AE6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="19"/>
-    </row>
-    <row r="7" spans="2:36" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="23"/>
+    </row>
+    <row r="7" spans="2:38" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
@@ -993,38 +1005,44 @@
       <c r="AC7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="24"/>
+      <c r="AD7" s="20"/>
       <c r="AE7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AF7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="10" t="s">
+      <c r="AH7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AJ7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AL7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -1042,17 +1060,19 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="12"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1079,17 +1099,19 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="12"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="12"/>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1123,10 +1145,12 @@
       <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="12"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1160,10 +1184,12 @@
       <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1197,10 +1223,12 @@
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="12"/>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1234,10 +1262,12 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1271,10 +1301,12 @@
       <c r="AH14" s="12"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="12"/>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1308,10 +1340,12 @@
       <c r="AH15" s="12"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="12"/>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1345,10 +1379,12 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1382,10 +1418,12 @@
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -1419,10 +1457,12 @@
       <c r="AH18" s="12"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="12"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1456,10 +1496,12 @@
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1493,10 +1535,12 @@
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="12"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -1530,10 +1574,12 @@
       <c r="AH21" s="12"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="12"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -1567,19 +1613,21 @@
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="12"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B5:AJ5"/>
+    <mergeCell ref="B5:AL5"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="V6:AC6"/>
     <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AJ6"/>
+    <mergeCell ref="AE6:AL6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M22" xr:uid="{49952D7F-C80C-4C61-84B1-6A7FD58124E1}">
